--- a/design_documents/サーバ設計書.xlsx
+++ b/design_documents/サーバ設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\design_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A0CAB-D516-4846-A71C-D2CCD51F888F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968E3BC-D712-4938-8F23-9D6FB47EF8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38385" yWindow="450" windowWidth="19095" windowHeight="15750" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
+    <workbookView xWindow="7395" yWindow="450" windowWidth="21405" windowHeight="15750" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
   </bookViews>
   <sheets>
     <sheet name="APIエンドポイント一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>APIサーバ設計書</t>
     <rPh sb="6" eb="9">
@@ -145,22 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Manage/Add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manage/Delete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manage/Edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manage/List</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教科管理のトップページ。教科一覧を表示する。追加削除変更を行う。</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
@@ -233,6 +217,89 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Subject/Add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Subject/Delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Subject/Edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Subject/List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題管理用ルート</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Problem/List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Problem/Add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Problem/Edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/Problem/Delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/User</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理ルート</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/User/List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/User/Edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/User/Delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage/User/Add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前、パスワード、ロールの管理</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,18 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +468,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,36 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +818,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -817,24 +857,24 @@
       <c r="I2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
@@ -859,16 +899,16 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5"/>
@@ -879,7 +919,7 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3"/>
@@ -888,10 +928,10 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
@@ -900,10 +940,10 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3"/>
@@ -912,10 +952,10 @@
     <row r="11" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3"/>
@@ -924,10 +964,10 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="3"/>
@@ -936,10 +976,10 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="3"/>
@@ -948,11 +988,11 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>24</v>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -960,11 +1000,11 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -972,11 +1012,11 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>22</v>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -984,11 +1024,11 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>21</v>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -996,109 +1036,145 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
